--- a/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T18:15:38+00:00</t>
+    <t>2023-12-09T18:46:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T18:46:14+00:00</t>
+    <t>2024-01-13T13:29:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9652" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9800" uniqueCount="994">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T13:29:38+00:00</t>
+    <t>2024-01-13T13:38:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1896,14 +1896,14 @@
     <t>AdministrativeGenderAddition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-ext-patient-administrativeGenderAddition}
+    <t xml:space="preserve">Extension {http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/StructureDefinition/at-core-ext-gender-administrativeGenderAddition}
 </t>
   </si>
   <si>
-    <t>Patient Administrative Gender Addition</t>
-  </si>
-  <si>
-    <t>HL7® Austria FHIR® Core Extension for the administrative gender of a patient. 
+    <t>Administrative Gender Addition</t>
+  </si>
+  <si>
+    <t>HL7® Austria FHIR® Core Extension for the administrative gender of a person (Patient, Practitioner, ...). 
 The extension is used to add the missing codes and is applied in case the code for administrative gender itself is set to 'other'.</t>
   </si>
   <si>
@@ -2829,6 +2829,18 @@
   </si>
   <si>
     <t>NK1-15</t>
+  </si>
+  <si>
+    <t>Patient.contact.gender.id</t>
+  </si>
+  <si>
+    <t>Patient.contact.gender.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact.gender.extension:AdministrativeGenderAddition</t>
+  </si>
+  <si>
+    <t>Patient.contact.gender.value</t>
   </si>
   <si>
     <t>Patient.contact.organization</t>
@@ -3359,7 +3371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP253"/>
+  <dimension ref="A1:AP257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -31881,18 +31893,16 @@
         <v>79</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>330</v>
+        <v>147</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>915</v>
+        <v>607</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>916</v>
+        <v>608</v>
       </c>
       <c r="N238" s="2"/>
-      <c r="O238" t="s" s="2">
-        <v>917</v>
-      </c>
+      <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
         <v>79</v>
       </c>
@@ -31940,7 +31950,7 @@
         <v>79</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>914</v>
+        <v>150</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>77</v>
@@ -31949,36 +31959,36 @@
         <v>87</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>918</v>
+        <v>79</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK238" t="s" s="2">
-        <v>919</v>
+        <v>79</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AM238" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN238" t="s" s="2">
-        <v>920</v>
+        <v>79</v>
       </c>
       <c r="AO238" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP238" t="s" s="2">
-        <v>921</v>
+        <v>79</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -31989,7 +31999,7 @@
         <v>77</v>
       </c>
       <c r="G239" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H239" t="s" s="2">
         <v>79</v>
@@ -32001,13 +32011,13 @@
         <v>79</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>923</v>
+        <v>133</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>924</v>
+        <v>134</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
@@ -32046,37 +32056,35 @@
         <v>79</v>
       </c>
       <c r="AB239" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC239" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AC239" s="2"/>
       <c r="AD239" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>922</v>
+        <v>159</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH239" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI239" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ239" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>925</v>
+        <v>79</v>
       </c>
       <c r="AL239" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AM239" t="s" s="2">
         <v>79</v>
@@ -32088,17 +32096,19 @@
         <v>79</v>
       </c>
       <c r="AP239" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="C240" s="2"/>
+        <v>915</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>611</v>
+      </c>
       <c r="D240" t="s" s="2">
         <v>79</v>
       </c>
@@ -32107,7 +32117,7 @@
         <v>77</v>
       </c>
       <c r="G240" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H240" t="s" s="2">
         <v>79</v>
@@ -32119,20 +32129,16 @@
         <v>79</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>816</v>
+        <v>612</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>927</v>
+        <v>613</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>928</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>930</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
       <c r="P240" t="s" s="2">
         <v>79</v>
       </c>
@@ -32180,7 +32186,7 @@
         <v>79</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>926</v>
+        <v>159</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>77</v>
@@ -32189,16 +32195,16 @@
         <v>78</v>
       </c>
       <c r="AI240" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AJ240" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>931</v>
+        <v>79</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>932</v>
+        <v>79</v>
       </c>
       <c r="AM240" t="s" s="2">
         <v>79</v>
@@ -32215,10 +32221,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -32244,10 +32250,10 @@
         <v>147</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>148</v>
+        <v>616</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>149</v>
+        <v>616</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
@@ -32298,7 +32304,7 @@
         <v>79</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>150</v>
+        <v>617</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>77</v>
@@ -32313,7 +32319,7 @@
         <v>79</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AL241" t="s" s="2">
         <v>79</v>
@@ -32333,21 +32339,21 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G242" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H242" t="s" s="2">
         <v>79</v>
@@ -32359,18 +32365,18 @@
         <v>79</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>155</v>
+        <v>919</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N242" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O242" s="2"/>
+        <v>920</v>
+      </c>
+      <c r="N242" s="2"/>
+      <c r="O242" t="s" s="2">
+        <v>921</v>
+      </c>
       <c r="P242" t="s" s="2">
         <v>79</v>
       </c>
@@ -32418,81 +32424,77 @@
         <v>79</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>159</v>
+        <v>918</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH242" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI242" t="s" s="2">
-        <v>79</v>
+        <v>922</v>
       </c>
       <c r="AJ242" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK242" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="AL242" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL242" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM242" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN242" t="s" s="2">
-        <v>79</v>
+        <v>924</v>
       </c>
       <c r="AO242" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP242" t="s" s="2">
-        <v>79</v>
+        <v>925</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
-        <v>826</v>
+        <v>79</v>
       </c>
       <c r="E243" s="2"/>
       <c r="F243" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G243" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H243" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I243" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>132</v>
+        <v>259</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>827</v>
+        <v>927</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O243" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="N243" s="2"/>
+      <c r="O243" s="2"/>
       <c r="P243" t="s" s="2">
         <v>79</v>
       </c>
@@ -32540,25 +32542,25 @@
         <v>79</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>829</v>
+        <v>926</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH243" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI243" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ243" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK243" t="s" s="2">
-        <v>130</v>
+        <v>929</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>79</v>
@@ -32570,15 +32572,15 @@
         <v>79</v>
       </c>
       <c r="AP243" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -32586,10 +32588,10 @@
       </c>
       <c r="E244" s="2"/>
       <c r="F244" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G244" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H244" t="s" s="2">
         <v>79</v>
@@ -32601,19 +32603,19 @@
         <v>79</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>174</v>
+        <v>816</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="P244" t="s" s="2">
         <v>79</v>
@@ -32638,13 +32640,13 @@
         <v>79</v>
       </c>
       <c r="X244" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="Z244" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AA244" t="s" s="2">
         <v>79</v>
@@ -32662,13 +32664,13 @@
         <v>79</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="AG244" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI244" t="s" s="2">
         <v>79</v>
@@ -32677,30 +32679,30 @@
         <v>99</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="AL244" t="s" s="2">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="AM244" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN244" t="s" s="2">
-        <v>943</v>
+        <v>79</v>
       </c>
       <c r="AO244" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP244" t="s" s="2">
-        <v>944</v>
+        <v>79</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -32723,20 +32725,16 @@
         <v>79</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>946</v>
+        <v>148</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>947</v>
-      </c>
-      <c r="N245" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="O245" t="s" s="2">
-        <v>949</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="N245" s="2"/>
+      <c r="O245" s="2"/>
       <c r="P245" t="s" s="2">
         <v>79</v>
       </c>
@@ -32784,7 +32782,7 @@
         <v>79</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>945</v>
+        <v>150</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>77</v>
@@ -32796,37 +32794,37 @@
         <v>79</v>
       </c>
       <c r="AJ245" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>950</v>
+        <v>151</v>
       </c>
       <c r="AL245" t="s" s="2">
-        <v>951</v>
+        <v>79</v>
       </c>
       <c r="AM245" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN245" t="s" s="2">
-        <v>952</v>
+        <v>79</v>
       </c>
       <c r="AO245" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP245" t="s" s="2">
-        <v>953</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
-        <v>955</v>
+        <v>154</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" t="s" s="2">
@@ -32845,16 +32843,16 @@
         <v>79</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>956</v>
+        <v>132</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>957</v>
+        <v>155</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>958</v>
+        <v>156</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>959</v>
+        <v>157</v>
       </c>
       <c r="O246" s="2"/>
       <c r="P246" t="s" s="2">
@@ -32904,7 +32902,7 @@
         <v>79</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>954</v>
+        <v>159</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>77</v>
@@ -32916,68 +32914,68 @@
         <v>79</v>
       </c>
       <c r="AJ246" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>960</v>
+        <v>151</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AM246" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN246" t="s" s="2">
-        <v>961</v>
+        <v>79</v>
       </c>
       <c r="AO246" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP246" t="s" s="2">
-        <v>962</v>
+        <v>79</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>79</v>
+        <v>826</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G247" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H247" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J247" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>330</v>
+        <v>132</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>964</v>
+        <v>827</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>965</v>
+        <v>828</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>966</v>
+        <v>157</v>
       </c>
       <c r="O247" t="s" s="2">
-        <v>967</v>
+        <v>274</v>
       </c>
       <c r="P247" t="s" s="2">
         <v>79</v>
@@ -33026,25 +33024,25 @@
         <v>79</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>963</v>
+        <v>829</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH247" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI247" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ247" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>919</v>
+        <v>130</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>968</v>
+        <v>79</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>79</v>
@@ -33056,15 +33054,15 @@
         <v>79</v>
       </c>
       <c r="AP247" t="s" s="2">
-        <v>969</v>
+        <v>79</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>970</v>
+        <v>940</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>970</v>
+        <v>940</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -33072,34 +33070,34 @@
       </c>
       <c r="E248" s="2"/>
       <c r="F248" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G248" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H248" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>816</v>
+        <v>174</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>971</v>
+        <v>941</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>972</v>
+        <v>942</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>973</v>
+        <v>943</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="P248" t="s" s="2">
         <v>79</v>
@@ -33124,13 +33122,13 @@
         <v>79</v>
       </c>
       <c r="X248" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="Z248" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AA248" t="s" s="2">
         <v>79</v>
@@ -33148,13 +33146,13 @@
         <v>79</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>970</v>
+        <v>940</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH248" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI248" t="s" s="2">
         <v>79</v>
@@ -33163,30 +33161,30 @@
         <v>99</v>
       </c>
       <c r="AK248" t="s" s="2">
-        <v>975</v>
+        <v>945</v>
       </c>
       <c r="AL248" t="s" s="2">
-        <v>151</v>
+        <v>946</v>
       </c>
       <c r="AM248" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN248" t="s" s="2">
-        <v>79</v>
+        <v>947</v>
       </c>
       <c r="AO248" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP248" t="s" s="2">
-        <v>79</v>
+        <v>948</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>976</v>
+        <v>949</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>976</v>
+        <v>949</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -33209,16 +33207,20 @@
         <v>79</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>148</v>
+        <v>950</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N249" s="2"/>
-      <c r="O249" s="2"/>
+        <v>951</v>
+      </c>
+      <c r="N249" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="O249" t="s" s="2">
+        <v>953</v>
+      </c>
       <c r="P249" t="s" s="2">
         <v>79</v>
       </c>
@@ -33266,7 +33268,7 @@
         <v>79</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>150</v>
+        <v>949</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>77</v>
@@ -33278,37 +33280,37 @@
         <v>79</v>
       </c>
       <c r="AJ249" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>151</v>
+        <v>954</v>
       </c>
       <c r="AL249" t="s" s="2">
-        <v>79</v>
+        <v>955</v>
       </c>
       <c r="AM249" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN249" t="s" s="2">
-        <v>79</v>
+        <v>956</v>
       </c>
       <c r="AO249" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP249" t="s" s="2">
-        <v>79</v>
+        <v>957</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>977</v>
+        <v>958</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>977</v>
+        <v>958</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
-        <v>154</v>
+        <v>959</v>
       </c>
       <c r="E250" s="2"/>
       <c r="F250" t="s" s="2">
@@ -33327,16 +33329,16 @@
         <v>79</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>132</v>
+        <v>960</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>155</v>
+        <v>961</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>156</v>
+        <v>962</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>157</v>
+        <v>963</v>
       </c>
       <c r="O250" s="2"/>
       <c r="P250" t="s" s="2">
@@ -33386,7 +33388,7 @@
         <v>79</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>159</v>
+        <v>958</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>77</v>
@@ -33398,68 +33400,68 @@
         <v>79</v>
       </c>
       <c r="AJ250" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK250" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="AL250" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AL250" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM250" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN250" t="s" s="2">
-        <v>79</v>
+        <v>965</v>
       </c>
       <c r="AO250" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP250" t="s" s="2">
-        <v>79</v>
+        <v>966</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
-        <v>826</v>
+        <v>79</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G251" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H251" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I251" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J251" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>827</v>
+        <v>968</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>828</v>
+        <v>969</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>157</v>
+        <v>970</v>
       </c>
       <c r="O251" t="s" s="2">
-        <v>274</v>
+        <v>971</v>
       </c>
       <c r="P251" t="s" s="2">
         <v>79</v>
@@ -33508,25 +33510,25 @@
         <v>79</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>829</v>
+        <v>967</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH251" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI251" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ251" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK251" t="s" s="2">
-        <v>130</v>
+        <v>923</v>
       </c>
       <c r="AL251" t="s" s="2">
-        <v>79</v>
+        <v>972</v>
       </c>
       <c r="AM251" t="s" s="2">
         <v>79</v>
@@ -33538,15 +33540,15 @@
         <v>79</v>
       </c>
       <c r="AP251" t="s" s="2">
-        <v>79</v>
+        <v>973</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -33554,33 +33556,35 @@
       </c>
       <c r="E252" s="2"/>
       <c r="F252" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G252" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H252" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I252" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J252" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>980</v>
+        <v>816</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>983</v>
-      </c>
-      <c r="O252" s="2"/>
+        <v>977</v>
+      </c>
+      <c r="O252" t="s" s="2">
+        <v>978</v>
+      </c>
       <c r="P252" t="s" s="2">
         <v>79</v>
       </c>
@@ -33628,13 +33632,13 @@
         <v>79</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH252" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI252" t="s" s="2">
         <v>79</v>
@@ -33643,7 +33647,7 @@
         <v>99</v>
       </c>
       <c r="AK252" t="s" s="2">
-        <v>282</v>
+        <v>979</v>
       </c>
       <c r="AL252" t="s" s="2">
         <v>151</v>
@@ -33652,21 +33656,21 @@
         <v>79</v>
       </c>
       <c r="AN252" t="s" s="2">
-        <v>984</v>
+        <v>79</v>
       </c>
       <c r="AO252" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP252" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -33674,7 +33678,7 @@
       </c>
       <c r="E253" s="2"/>
       <c r="F253" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G253" t="s" s="2">
         <v>87</v>
@@ -33686,16 +33690,16 @@
         <v>79</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>986</v>
+        <v>148</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>987</v>
+        <v>149</v>
       </c>
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
@@ -33722,60 +33726,540 @@
         <v>79</v>
       </c>
       <c r="X253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF253" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AG253" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH253" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK253" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO253" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP253" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="B254" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="C254" s="2"/>
+      <c r="D254" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="E254" s="2"/>
+      <c r="F254" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K254" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L254" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M254" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N254" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O254" s="2"/>
+      <c r="P254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q254" s="2"/>
+      <c r="R254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF254" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AG254" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH254" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ254" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK254" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO254" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP254" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="B255" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="C255" s="2"/>
+      <c r="D255" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="E255" s="2"/>
+      <c r="F255" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I255" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J255" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K255" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L255" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="M255" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="N255" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O255" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="P255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q255" s="2"/>
+      <c r="R255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF255" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="AG255" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH255" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ255" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK255" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO255" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP255" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="B256" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="C256" s="2"/>
+      <c r="D256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E256" s="2"/>
+      <c r="F256" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G256" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J256" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K256" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="L256" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="M256" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="N256" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="O256" s="2"/>
+      <c r="P256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q256" s="2"/>
+      <c r="R256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF256" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="AG256" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH256" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ256" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK256" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL256" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN256" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="AO256" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP256" t="s" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="B257" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="C257" s="2"/>
+      <c r="D257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E257" s="2"/>
+      <c r="F257" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G257" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J257" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K257" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L257" t="s" s="2">
+        <v>990</v>
+      </c>
+      <c r="M257" t="s" s="2">
+        <v>991</v>
+      </c>
+      <c r="N257" s="2"/>
+      <c r="O257" s="2"/>
+      <c r="P257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q257" s="2"/>
+      <c r="R257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X257" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y253" t="s" s="2">
-        <v>987</v>
-      </c>
-      <c r="Z253" t="s" s="2">
-        <v>988</v>
-      </c>
-      <c r="AA253" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB253" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC253" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD253" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE253" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF253" t="s" s="2">
-        <v>985</v>
-      </c>
-      <c r="AG253" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH253" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI253" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ253" t="s" s="2">
+      <c r="Y257" t="s" s="2">
+        <v>991</v>
+      </c>
+      <c r="Z257" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="AA257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF257" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="AG257" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH257" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ257" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK253" t="s" s="2">
-        <v>989</v>
-      </c>
-      <c r="AL253" t="s" s="2">
+      <c r="AK257" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="AL257" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AM253" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN253" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO253" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP253" t="s" s="2">
+      <c r="AM257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO257" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP257" t="s" s="2">
         <v>151</v>
       </c>
     </row>

--- a/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-AdditionalAdministrativeGenderCodes/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-13T13:38:20+00:00</t>
+    <t>2024-02-04T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
